--- a/Summary_Patient_chronic_GvHD.xlsx
+++ b/Summary_Patient_chronic_GvHD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\GvHDtrackR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C936545B-1270-4649-B8EE-31381EED772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E9EDDA-9889-4ABA-82B8-AD65FF48298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -145,13 +145,13 @@
     <t>Date stop mPDN</t>
   </si>
   <si>
-    <t>Topic steroid treatment</t>
-  </si>
-  <si>
-    <t>Date starting topic steroid treatment</t>
-  </si>
-  <si>
-    <t>Date stop topic steroid treatment</t>
+    <t>Topical steroid treatment</t>
+  </si>
+  <si>
+    <t>Date starting topical steroid treatment</t>
+  </si>
+  <si>
+    <t>Date stop topical steroid treatment</t>
   </si>
   <si>
     <t>Ruxolitinib treatment</t>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>Date stop treatment</t>
+  </si>
+  <si>
+    <t>Azathioprine treatment</t>
+  </si>
+  <si>
+    <t>Date starting Azathioprine</t>
+  </si>
+  <si>
+    <t>Date stop Azathioprine</t>
   </si>
 </sst>
 </file>
@@ -654,19 +663,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CP1"/>
+  <dimension ref="A1:CS1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,6 +953,15 @@
       </c>
       <c r="CP1" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Summary_Patient_chronic_GvHD.xlsx
+++ b/Summary_Patient_chronic_GvHD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\GvHDtrackR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E9EDDA-9889-4ABA-82B8-AD65FF48298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6516A85-DD67-40D9-92D1-16429D2D4645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Summary_Patient_chronic_GvHD.xlsx
+++ b/Summary_Patient_chronic_GvHD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\GvHDtrackR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6516A85-DD67-40D9-92D1-16429D2D4645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771269D-17BE-4A9F-82C7-003C96BB879A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A1:CS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
